--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>671875.4549438658</v>
+        <v>669312.517749291</v>
       </c>
     </row>
     <row r="7">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>277.8526128065275</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>171.7039579044345</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>385.219981083777</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>8.906162259192255</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>115.6867193786438</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -874,10 +874,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>372.0516450044725</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>224.4721802980717</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,22 +1105,22 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>76.25086600925765</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>95.49449415056225</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,16 +1133,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>304.7170001119174</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,10 +1184,10 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>361.4613773061632</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>34.85103768941604</v>
+        <v>217.1978438865523</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>304.3915154833894</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
-        <v>148.9055307001842</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>81.37259901119261</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
-        <v>34.78296171220897</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819388</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>129.107892822384</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465709</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>172.0260335000767</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D19" t="n">
-        <v>15.9345014072213</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2479,16 +2479,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G25" t="n">
-        <v>19.91555826189057</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>24.83266606353076</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G31" t="n">
-        <v>120.7871326503968</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>60.64713141731118</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>56.04917322725558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699818</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>114.2821160880066</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3667,10 +3667,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3898,10 +3898,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,13 +3910,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>48.85497112745762</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,49 +4304,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1291.481876182944</v>
+        <v>1179.250440354288</v>
       </c>
       <c r="C2" t="n">
-        <v>1010.822671327866</v>
+        <v>810.2879234138759</v>
       </c>
       <c r="D2" t="n">
-        <v>1010.822671327866</v>
+        <v>452.0222248071254</v>
       </c>
       <c r="E2" t="n">
-        <v>837.3843300102556</v>
+        <v>452.0222248071254</v>
       </c>
       <c r="F2" t="n">
-        <v>837.3843300102556</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q2" t="n">
         <v>2542.25058172385</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.313418796629</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2308.758267664335</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182944</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182944</v>
+        <v>1955.989612394221</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182944</v>
+        <v>1565.850280418409</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>114.5432626034352</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K3" t="n">
-        <v>299.2648838844851</v>
+        <v>507.2413987429751</v>
       </c>
       <c r="L3" t="n">
-        <v>593.9684409159568</v>
+        <v>801.944955774447</v>
       </c>
       <c r="M3" t="n">
-        <v>957.2304598751767</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
-        <v>1344.515588472122</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1676.586023648284</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>422.6961034747437</v>
+        <v>60.2429100621367</v>
       </c>
       <c r="C4" t="n">
-        <v>422.6961034747437</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>422.6961034747437</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>422.6961034747437</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
         <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>825.1371474485136</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V4" t="n">
-        <v>825.1371474485136</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W4" t="n">
-        <v>825.1371474485136</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X4" t="n">
-        <v>825.1371474485136</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="Y4" t="n">
-        <v>604.3445683049835</v>
+        <v>60.2429100621367</v>
       </c>
     </row>
     <row r="5">
@@ -4541,43 +4541,43 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1465.289389295559</v>
+        <v>1444.690564856571</v>
       </c>
       <c r="C5" t="n">
-        <v>1096.326872355147</v>
+        <v>1444.690564856571</v>
       </c>
       <c r="D5" t="n">
-        <v>738.0611737483964</v>
+        <v>1086.42486624982</v>
       </c>
       <c r="E5" t="n">
-        <v>738.0611737483964</v>
+        <v>700.636613651576</v>
       </c>
       <c r="F5" t="n">
-        <v>731.115672999193</v>
+        <v>693.6911129023725</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>277.9863626266614</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816093</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872929</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
         <v>2055.228484740841</v>
@@ -4586,31 +4586,31 @@
         <v>2360.886721764998</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V5" t="n">
-        <v>2228.89447953245</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="W5" t="n">
-        <v>2228.89447953245</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="X5" t="n">
-        <v>1855.42872127137</v>
+        <v>1831.290404920692</v>
       </c>
       <c r="Y5" t="n">
-        <v>1465.289389295559</v>
+        <v>1831.290404920692</v>
       </c>
     </row>
     <row r="6">
@@ -4638,25 +4638,25 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M6" t="n">
-        <v>1178.376567084329</v>
+        <v>1295.759829269321</v>
       </c>
       <c r="N6" t="n">
-        <v>1565.661695681274</v>
+        <v>1683.044957866266</v>
       </c>
       <c r="O6" t="n">
         <v>2199.840679460312</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>770.0080784229705</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="C7" t="n">
-        <v>770.0080784229705</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D7" t="n">
-        <v>619.8914390106347</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E7" t="n">
-        <v>471.9783454282416</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.23396574994</v>
+        <v>1260.212888972913</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253778</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="V7" t="n">
-        <v>951.6565432532102</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W7" t="n">
-        <v>951.6565432532102</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>951.6565432532102</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>951.6565432532102</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1585.174086820818</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C8" t="n">
-        <v>1585.174086820818</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>1226.908388214068</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>841.1201356158233</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
         <v>117.6204357321147</v>
@@ -4799,55 +4799,55 @@
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="W8" t="n">
-        <v>1975.31341879663</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="X8" t="n">
-        <v>1975.31341879663</v>
+        <v>2064.174362665547</v>
       </c>
       <c r="Y8" t="n">
-        <v>1585.174086820818</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="9">
@@ -4875,31 +4875,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>613.9915673260022</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.63996629486</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2238.100841080694</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>644.9053651971361</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="C10" t="n">
-        <v>644.9053651971361</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D10" t="n">
-        <v>494.7887257848004</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>346.8756322024072</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9856847044969</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.23396574994</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1302.030897376793</v>
+        <v>1117.842204248373</v>
       </c>
       <c r="U10" t="n">
-        <v>1302.030897376793</v>
+        <v>828.7238667522108</v>
       </c>
       <c r="V10" t="n">
-        <v>1047.346409170906</v>
+        <v>574.039378546324</v>
       </c>
       <c r="W10" t="n">
-        <v>1047.346409170906</v>
+        <v>574.039378546324</v>
       </c>
       <c r="X10" t="n">
-        <v>1047.346409170906</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="Y10" t="n">
-        <v>826.5538300273759</v>
+        <v>346.0498276483066</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.224468905844</v>
+        <v>2266.424947555042</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.261951965432</v>
+        <v>1897.462430614631</v>
       </c>
       <c r="D11" t="n">
         <v>1589.996253358682</v>
@@ -5030,61 +5030,61 @@
         <v>793.22209597083</v>
       </c>
       <c r="G11" t="n">
-        <v>379.2389888872365</v>
+        <v>379.2389888872364</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608047</v>
       </c>
       <c r="J11" t="n">
-        <v>372.3074987251944</v>
+        <v>372.3074987251933</v>
       </c>
       <c r="K11" t="n">
-        <v>841.9378825128765</v>
+        <v>841.9378825128751</v>
       </c>
       <c r="L11" t="n">
-        <v>1461.457663018651</v>
+        <v>1461.45766301865</v>
       </c>
       <c r="M11" t="n">
-        <v>2182.462224957689</v>
+        <v>2182.462224957687</v>
       </c>
       <c r="N11" t="n">
-        <v>2919.747202874795</v>
+        <v>2919.747202874793</v>
       </c>
       <c r="O11" t="n">
-        <v>3602.609239333934</v>
+        <v>3602.609239333931</v>
       </c>
       <c r="P11" t="n">
-        <v>4150.915188021281</v>
+        <v>4150.915188021278</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127286</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304024</v>
       </c>
       <c r="S11" t="n">
-        <v>4555.113898070876</v>
+        <v>4555.113898070873</v>
       </c>
       <c r="T11" t="n">
-        <v>4404.704271100993</v>
+        <v>4353.904749750192</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.260941820542</v>
+        <v>4100.461420469741</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.198054476972</v>
+        <v>3769.39853312617</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.429399206857</v>
+        <v>3416.629877856056</v>
       </c>
       <c r="X11" t="n">
-        <v>3093.963640945778</v>
+        <v>3043.164119594976</v>
       </c>
       <c r="Y11" t="n">
-        <v>2703.824308969966</v>
+        <v>2653.024787619164</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060306</v>
       </c>
       <c r="J12" t="n">
-        <v>92.81162322608054</v>
+        <v>241.498637552449</v>
       </c>
       <c r="K12" t="n">
-        <v>92.81162322608054</v>
+        <v>572.0073801158078</v>
       </c>
       <c r="L12" t="n">
-        <v>583.5439560698319</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1175.56231032196</v>
+        <v>1117.915713151553</v>
       </c>
       <c r="N12" t="n">
-        <v>1797.658273721296</v>
+        <v>1740.011676550889</v>
       </c>
       <c r="O12" t="n">
-        <v>2133.192111344164</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.1710892086094</v>
+        <v>494.0589900220732</v>
       </c>
       <c r="C13" t="n">
-        <v>762.2349062807025</v>
+        <v>325.1228070941663</v>
       </c>
       <c r="D13" t="n">
-        <v>612.1182668683667</v>
+        <v>175.0061676818306</v>
       </c>
       <c r="E13" t="n">
-        <v>464.2051732859736</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="F13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="G13" t="n">
-        <v>317.3152257880633</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="H13" t="n">
-        <v>175.4425088264937</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608048</v>
       </c>
       <c r="J13" t="n">
-        <v>171.7937461156345</v>
+        <v>171.7937461156344</v>
       </c>
       <c r="K13" t="n">
-        <v>431.4224730861981</v>
+        <v>431.422473086198</v>
       </c>
       <c r="L13" t="n">
-        <v>819.1842911693324</v>
+        <v>819.1842911693323</v>
       </c>
       <c r="M13" t="n">
-        <v>1238.413883213792</v>
+        <v>1238.413883213791</v>
       </c>
       <c r="N13" t="n">
-        <v>1653.109749005499</v>
+        <v>1653.109749005498</v>
       </c>
       <c r="O13" t="n">
         <v>2020.132206020528</v>
@@ -5224,25 +5224,25 @@
         <v>2360.516429368669</v>
       </c>
       <c r="S13" t="n">
-        <v>2325.382124608862</v>
+        <v>2177.346239107599</v>
       </c>
       <c r="T13" t="n">
-        <v>2105.703342323244</v>
+        <v>1957.667456821981</v>
       </c>
       <c r="U13" t="n">
-        <v>2105.703342323244</v>
+        <v>1668.591243136708</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.018854117357</v>
+        <v>1413.906754930821</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.601684080396</v>
+        <v>1124.48958489386</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.612133182379</v>
+        <v>896.5000339958431</v>
       </c>
       <c r="Y13" t="n">
-        <v>1112.819554038849</v>
+        <v>675.7074548523129</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5288,13 +5288,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>417.9651836029407</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>913.2907898186995</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.04349261611</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>383.4415877881686</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2273.199413378163</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>2273.199413378163</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>2018.514925172276</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135315</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237298</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093768</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5519,16 +5519,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>565.7099969556945</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5887,16 +5887,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>261.8464821474262</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>113.9333885650331</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F25" t="n">
-        <v>113.9333885650331</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6306,10 +6306,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M27" t="n">
         <v>716.6687843969308</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>555.8158034133954</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2421.879582505987</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2239.024748160891</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2019.423283183833</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1730.34805652803</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1475.663568322143</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1186.246398285183</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>958.2568473871653</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>737.4642682436352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6467,13 +6467,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6546,22 +6546,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6598,16 +6598,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>363.7369613277355</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>215.8238677453423</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F31" t="n">
-        <v>215.8238677453423</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,16 +6710,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N33" t="n">
-        <v>2148.04349261611</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>444.7013164925216</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>296.7882229101285</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>296.7882229101285</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>155.0763917523266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6932,16 +6932,16 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7014,25 +7014,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
         <v>2516.421633107662</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E37" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
         <v>93.81666304797187</v>
@@ -7093,52 +7093,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7412,7 +7412,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7491,16 +7491,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7546,22 +7546,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E43" t="n">
-        <v>513.8536007400712</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>366.9636532421608</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
   </sheetData>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0.9556134883069305</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>84.94186588374635</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8298,16 +8298,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M6" t="n">
-        <v>224.3355197601774</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039159</v>
+        <v>186.5911984019034</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8535,10 +8535,10 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>21.18099370047366</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179985</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>186.4490126143854</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>87.42027896448003</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>181.1197517384229</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>21.65606465793439</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22613,7 +22613,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22702,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>50.2915261372936</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>50.29152613728999</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>65.06136363537657</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>146.55552664625</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>19.50758019582833</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>45.37941682721151</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D19" t="n">
-        <v>132.6809716109911</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24127,19 +24127,19 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>62.35543909865113</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24367,16 +24367,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G25" t="n">
-        <v>145.6085800303783</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G31" t="n">
-        <v>44.73700564187209</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>45.44677382459263</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>20.61870490125435</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25555,10 +25555,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25786,10 +25786,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,13 +25798,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>116.6691671648112</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>950730.4202770052</v>
+        <v>950730.4202770054</v>
       </c>
     </row>
     <row r="3">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375475.6212503244</v>
+        <v>375475.6212503245</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321419</v>
       </c>
       <c r="D2" t="n">
-        <v>410520.8849321416</v>
+        <v>410520.8849321418</v>
       </c>
       <c r="E2" t="n">
         <v>401339.8858190154</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
         <v>403573.2998450031</v>
@@ -26335,10 +26335,10 @@
         <v>403573.299845003</v>
       </c>
       <c r="J2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="L2" t="n">
         <v>403573.2998450031</v>
@@ -26347,13 +26347,13 @@
         <v>403573.2998450031</v>
       </c>
       <c r="N2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
       <c r="O2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.2998450032</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>495753.0386361763</v>
+        <v>495753.0386361756</v>
       </c>
       <c r="F3" t="n">
-        <v>11452.26311504116</v>
+        <v>11452.26311504171</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26393,13 +26393,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.62584001373034e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>129476.5444317441</v>
+        <v>129476.5444317439</v>
       </c>
       <c r="N3" t="n">
-        <v>3077.01735570473</v>
+        <v>3077.01735570474</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91904.36150325157</v>
+        <v>91904.3615032516</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="E4" t="n">
         <v>6890.891875482008</v>
       </c>
       <c r="F4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="G4" t="n">
+        <v>6897.42449670736</v>
+      </c>
+      <c r="H4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="H4" t="n">
-        <v>6897.42449670736</v>
-      </c>
       <c r="I4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="J4" t="n">
         <v>6897.42449670736</v>
@@ -26445,16 +26445,16 @@
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707349</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>100142.1285138384</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-924118.2962686913</v>
+        <v>-924293.5225871009</v>
       </c>
       <c r="C6" t="n">
-        <v>185673.385660672</v>
+        <v>185673.3856606723</v>
       </c>
       <c r="D6" t="n">
-        <v>185673.3856606719</v>
+        <v>185673.3856606722</v>
       </c>
       <c r="E6" t="n">
-        <v>-201446.1732064814</v>
+        <v>-201492.0782020462</v>
       </c>
       <c r="F6" t="n">
-        <v>284101.0824093476</v>
+        <v>284066.3444839112</v>
       </c>
       <c r="G6" t="n">
-        <v>295553.3455243887</v>
+        <v>295518.6075989531</v>
       </c>
       <c r="H6" t="n">
-        <v>295553.3455243886</v>
+        <v>295518.6075989528</v>
       </c>
       <c r="I6" t="n">
-        <v>295553.3455243885</v>
+        <v>295518.6075989528</v>
       </c>
       <c r="J6" t="n">
-        <v>127948.1677144061</v>
+        <v>127913.4297889703</v>
       </c>
       <c r="K6" t="n">
-        <v>295553.3455243886</v>
+        <v>295518.6075989528</v>
       </c>
       <c r="L6" t="n">
-        <v>295553.3455243887</v>
+        <v>295518.6075989528</v>
       </c>
       <c r="M6" t="n">
-        <v>166076.8010926446</v>
+        <v>166042.063167209</v>
       </c>
       <c r="N6" t="n">
-        <v>292476.3281686839</v>
+        <v>292441.5902432483</v>
       </c>
       <c r="O6" t="n">
-        <v>295553.3455243886</v>
+        <v>295518.6075989529</v>
       </c>
       <c r="P6" t="n">
-        <v>295553.3455243887</v>
+        <v>295518.607598953</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,10 +26966,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>423.9761565988467</v>
+        <v>423.9761565988462</v>
       </c>
       <c r="F3" t="n">
-        <v>9.93445162528792</v>
+        <v>9.934451625288375</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26987,7 +26987,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>519.5604582259679</v>
+        <v>519.560458225967</v>
       </c>
       <c r="F4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259679</v>
+        <v>519.560458225967</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,10 +27264,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>519.5604582259679</v>
+        <v>519.560458225967</v>
       </c>
       <c r="N4" t="n">
-        <v>12.56299777364165</v>
+        <v>12.56299777364234</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>210.2264121678273</v>
+        <v>200.8106183338389</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>158.3406588394356</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>29.73432864428749</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27555,7 +27555,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27594,10 +27594,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>39.49605776848148</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>76.54637226433371</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,22 +27825,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>144.4978299879543</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>156.6431491732658</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,16 +27853,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>102.159045629794</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27904,10 +27904,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>24.77656134989036</v>
       </c>
     </row>
     <row r="9">
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>185.8976583077959</v>
+        <v>3.550852110659633</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,46 +31200,46 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31440,25 +31440,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>197.8673674492846</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O12" t="n">
-        <v>481.519312750372</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>312.3207226334973</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,7 +32318,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P18" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963283</v>
+        <v>430.1367711736326</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,7 +32564,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>300.5543663814922</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,13 +33026,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>266.6561007250664</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>270.9486956727256</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33266,7 +33266,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>213.3000196296242</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>403.3065760821439</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q36" t="n">
-        <v>364.3208035245835</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>270.9716933356906</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,19 +34211,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>561.8765786214698</v>
@@ -34448,25 +34448,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>614.7544723218309</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402547</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63.93583437922432</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>271.5293621272313</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M6" t="n">
-        <v>591.2668520422178</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>522.0158803980265</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>318.861354338324</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>302.9297349452399</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>24.58388860977097</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>55.73333352726625</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O12" t="n">
-        <v>338.9230683059276</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>174.4792836591384</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,7 +35966,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P18" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>261.3487819164541</v>
+        <v>291.5823913937584</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,7 +36212,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>161.999986601618</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>128.8146617507074</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36914,7 +36914,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>79.325612215294</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>409.1088842875408</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q36" t="n">
-        <v>224.339029438562</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>132.4173135558164</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,19 +37859,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>427.9021712071395</v>
@@ -38096,25 +38096,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>476.2000925419567</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
